--- a/Proof of concept/Training example/20231207-131956_20231207-131047_tidal training model example.xlsx
+++ b/Proof of concept/Training example/20231207-131956_20231207-131047_tidal training model example.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ofwat-my.sharepoint.com/personal/hanif_jetha_ofwat_gov_uk/Documents/Fountain training/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ofwat.sharepoint.com/sites/ofw-pr24/PR24 policy development/Data/Python work/Soteria/Proof of concept/Training example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{99994D49-4A7A-47F5-8812-73A598BECFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C4F5CE8-266D-4CD7-9EB9-D0896D33923B}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{99994D49-4A7A-47F5-8812-73A598BECFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C45753A-6D10-443A-9E8A-6FC89229EDA2}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{C7AE3E7D-C5CB-4723-8C3D-2090ACA05D7A}"/>
   </bookViews>
@@ -855,10 +855,13 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -3353,75 +3356,75 @@
       </c>
       <c r="F5" s="23" t="str">
         <f t="shared" ref="F5:W5" ca="1" si="0">CONCATENATE("[…]", TEXT(NOW(),"dd/mm/yyy hh:mm:ss"))</f>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="G5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="H5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="I5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="J5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="K5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="L5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="M5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="N5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="O5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="P5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="Q5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="R5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="S5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="T5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="U5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="V5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="W5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
     </row>
     <row r="6" spans="1:23" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.35">
@@ -3620,75 +3623,75 @@
       </c>
       <c r="F8" s="23" t="str">
         <f t="shared" ref="F8:W8" ca="1" si="2">CONCATENATE("[…]", TEXT(NOW(),"dd/mm/yyy hh:mm:ss"))</f>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="G8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="H8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="I8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="J8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="K8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="L8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="M8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="N8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="O8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="P8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="Q8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="R8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="S8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="T8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="U8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="V8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="W8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
     </row>
     <row r="9" spans="1:23" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.35">
@@ -3887,75 +3890,75 @@
       </c>
       <c r="F11" s="23" t="str">
         <f t="shared" ref="F11:W11" ca="1" si="4">CONCATENATE("[…]", TEXT(NOW(),"dd/mm/yyy hh:mm:ss"))</f>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="G11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="H11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="I11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="J11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="K11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="L11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="M11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="N11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="O11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="P11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="Q11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="R11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="S11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="T11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="U11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="V11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
       <c r="W11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]07/12/2023 13:20:25</v>
+        <v>[…]12/12/2023 14:00:05</v>
       </c>
     </row>
     <row r="12" spans="1:23" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.35">
@@ -4053,6 +4056,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010071233F17EC503149BDF7FC18AB281EBA" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="02da06d0e7423711b15ba2dd948bdc51">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e977ff61-02db-41ba-b0af-78a2a0b9367c" xmlns:ns3="71c95305-930c-4d63-9794-2d644343057c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3d0e005ae340b8749f809a633acf029" ns2:_="" ns3:_="">
     <xsd:import namespace="e977ff61-02db-41ba-b0af-78a2a0b9367c"/>
@@ -4289,19 +4301,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{955968F5-5D31-435A-90A4-D92F0C94FC3A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47B0FACA-F6EC-40FA-9FEC-7A5419037069}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47B0FACA-F6EC-40FA-9FEC-7A5419037069}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{955968F5-5D31-435A-90A4-D92F0C94FC3A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e977ff61-02db-41ba-b0af-78a2a0b9367c"/>
+    <ds:schemaRef ds:uri="71c95305-930c-4d63-9794-2d644343057c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Proof of concept/Training example/20231207-131956_20231207-131047_tidal training model example.xlsx
+++ b/Proof of concept/Training example/20231207-131956_20231207-131047_tidal training model example.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ofwat.sharepoint.com/sites/ofw-pr24/PR24 policy development/Data/Python work/Soteria/Proof of concept/Training example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{99994D49-4A7A-47F5-8812-73A598BECFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C45753A-6D10-443A-9E8A-6FC89229EDA2}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{99994D49-4A7A-47F5-8812-73A598BECFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A17F22F-BB7B-44A1-B4A9-3A406A092C51}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{C7AE3E7D-C5CB-4723-8C3D-2090ACA05D7A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" firstSheet="1" activeTab="1" xr2:uid="{C7AE3E7D-C5CB-4723-8C3D-2090ACA05D7A}"/>
   </bookViews>
   <sheets>
-    <sheet name="CLEAR_SHEET" sheetId="9" r:id="rId1"/>
+    <sheet name="CLEAR_SHEET" sheetId="9" state="hidden" r:id="rId1"/>
     <sheet name="F_Inputs" sheetId="8" r:id="rId2"/>
     <sheet name="Calculations" sheetId="6" r:id="rId3"/>
     <sheet name="F_Outputs" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -553,6 +553,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -854,7 +858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -1056,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -3356,75 +3360,75 @@
       </c>
       <c r="F5" s="23" t="str">
         <f t="shared" ref="F5:W5" ca="1" si="0">CONCATENATE("[…]", TEXT(NOW(),"dd/mm/yyy hh:mm:ss"))</f>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="G5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="H5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="I5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="J5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="K5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="L5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="M5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="N5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="O5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="P5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="Q5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="R5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="S5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="T5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="U5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="V5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="W5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
     </row>
     <row r="6" spans="1:23" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.35">
@@ -3445,75 +3449,75 @@
       </c>
       <c r="F6" s="22" t="str">
         <f t="shared" ref="F6:W6" ca="1" si="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1,SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1)</f>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="G6" s="22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="H6" s="22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="I6" s="22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="J6" s="22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="K6" s="22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="L6" s="22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="M6" s="22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="N6" s="22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="O6" s="22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="P6" s="22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="Q6" s="22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="R6" s="22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="S6" s="22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="T6" s="22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="U6" s="22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="V6" s="22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="W6" s="22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
@@ -3623,75 +3627,75 @@
       </c>
       <c r="F8" s="23" t="str">
         <f t="shared" ref="F8:W8" ca="1" si="2">CONCATENATE("[…]", TEXT(NOW(),"dd/mm/yyy hh:mm:ss"))</f>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="G8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="H8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="I8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="J8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="K8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="L8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="M8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="N8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="O8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="P8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="Q8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="R8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="S8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="T8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="U8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="V8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="W8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
     </row>
     <row r="9" spans="1:23" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.35">
@@ -3712,75 +3716,75 @@
       </c>
       <c r="F9" s="22" t="str">
         <f t="shared" ref="F9:W9" ca="1" si="3">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1,SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1)</f>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="G9" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="H9" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="I9" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="J9" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="K9" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="L9" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="M9" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="N9" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="O9" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="P9" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="Q9" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="R9" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="S9" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="T9" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="U9" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="V9" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="W9" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
@@ -3890,75 +3894,75 @@
       </c>
       <c r="F11" s="23" t="str">
         <f t="shared" ref="F11:W11" ca="1" si="4">CONCATENATE("[…]", TEXT(NOW(),"dd/mm/yyy hh:mm:ss"))</f>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="G11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="H11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="I11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="J11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="K11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="L11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="M11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="N11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="O11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="P11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="Q11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="R11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="S11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="T11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="U11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="V11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
       <c r="W11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]12/12/2023 14:00:05</v>
+        <v>[…]20/12/2023 13:41:16</v>
       </c>
     </row>
     <row r="12" spans="1:23" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.35">
@@ -3979,75 +3983,75 @@
       </c>
       <c r="F12" s="22" t="str">
         <f ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1,SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1)</f>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="G12" s="22" t="str">
         <f t="shared" ref="G12:W12" ca="1" si="5">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1,SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1)</f>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="H12" s="22" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="I12" s="22" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="J12" s="22" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="K12" s="22" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="L12" s="22" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="M12" s="22" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="N12" s="22" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="O12" s="22" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="P12" s="22" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="Q12" s="22" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="R12" s="22" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="S12" s="22" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="T12" s="22" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="U12" s="22" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="V12" s="22" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
       <c r="W12" s="22" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>20231207-131956_20231207-131047_tidal training model example.xlsx</v>
+        <v>Flexi Sheet Master 2023.xlsx</v>
       </c>
     </row>
   </sheetData>
